--- a/excel/RequirementData.xlsx
+++ b/excel/RequirementData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/sp-data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3573C4EF-29F4-E546-BB5E-F742C236DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDE33E-390B-F644-BF1D-1C4F4BAAFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="5080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RequirementInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="RequirementInfoData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/excel/RequirementData.xlsx
+++ b/excel/RequirementData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDE33E-390B-F644-BF1D-1C4F4BAAFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70DEB78-7A86-804A-932B-FC8A64B90B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="5080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RequirementInfoData" sheetId="1" r:id="rId1"/>
+    <sheet name="RequirementInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/excel/RequirementData.xlsx
+++ b/excel/RequirementData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70DEB78-7A86-804A-932B-FC8A64B90B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD3143-24D2-8948-B35C-ADB220C9132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="5080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,13 +481,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/excel/RequirementData.xlsx
+++ b/excel/RequirementData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD3143-24D2-8948-B35C-ADB220C9132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7194BD9D-D97F-E14A-9E3F-D8025F430219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="5080" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="680" windowWidth="21540" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RequirementInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RequirementType</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -87,6 +87,103 @@
       </rPr>
       <t xml:space="preserve"> false</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HHMM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(inclusive), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(exclusive) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivateDuration</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -481,13 +578,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -530,9 +627,13 @@
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">

--- a/excel/RequirementData.xlsx
+++ b/excel/RequirementData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7194BD9D-D97F-E14A-9E3F-D8025F430219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16C13B-692C-9C42-9CCB-E816DAF9F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="680" windowWidth="21540" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RequirementType</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -90,8 +90,114 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">HHMM </t>
+    <t>ActivateDuration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyhomeSlimeAppeared</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게이지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되었을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> true</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>value=HHMM</t>
     </r>
     <r>
       <rPr>
@@ -168,22 +274,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(exclusive) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivateDuration</t>
+      <t>(exclusive)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,6 +351,26 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -339,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -357,6 +469,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -578,7 +691,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -629,16 +742,20 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
